--- a/StructureDefinition-ext-R5-NutritionOrder.supplement.xlsx
+++ b/StructureDefinition-ext-R5-NutritionOrder.supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="239">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,8 +458,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:concept.id</t>
@@ -481,7 +480,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-supplement-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-supplement-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:reference</t>
@@ -496,8 +495,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:reference.id</t>
@@ -512,7 +510,7 @@
     <t>Extension.extension:type.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic)
 </t>
   </si>
   <si>
@@ -689,15 +687,6 @@
     <t>Extension.extension:schedule.extension:asNeededFor.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to       consuming a supplement.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medication-as-needed-reason-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:schedule.url</t>
   </si>
   <si>
@@ -738,7 +727,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1123,8 +1112,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="93.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.47265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.0703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6010,13 +5999,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6054,7 +6043,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>160</v>
@@ -6097,7 +6086,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6159,7 +6148,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>163</v>
@@ -6262,13 +6251,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6293,14 +6282,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6369,7 +6358,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -6472,7 +6461,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -6577,7 +6566,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>160</v>
@@ -6620,7 +6609,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6682,7 +6671,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>163</v>
@@ -6708,13 +6697,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6785,13 +6774,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6816,16 +6805,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6894,7 +6883,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -6997,7 +6986,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7102,7 +7091,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>160</v>
@@ -7145,7 +7134,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7207,7 +7196,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>163</v>
@@ -7236,13 +7225,13 @@
         <v>87</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
